--- a/testdata/Mens Team.xlsx
+++ b/testdata/Mens Team.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15660" firstSheet="2"/>
+    <workbookView windowHeight="14360" firstSheet="2" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="entries" sheetId="3" r:id="rId1"/>
@@ -42,40 +42,40 @@
     <t>Seeding</t>
   </si>
   <si>
-    <t>a</t>
+    <t>Absolute</t>
   </si>
   <si>
     <t>CHN</t>
   </si>
   <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>e</t>
+    <t>Bestest</t>
+  </si>
+  <si>
+    <t>Champions</t>
+  </si>
+  <si>
+    <t>Delicious</t>
+  </si>
+  <si>
+    <t>Excellence</t>
   </si>
   <si>
     <t>EUR</t>
   </si>
   <si>
-    <t>f</t>
-  </si>
-  <si>
-    <t>g</t>
+    <t>Fabulous</t>
+  </si>
+  <si>
+    <t>Goldilock</t>
   </si>
   <si>
     <t>KOR</t>
   </si>
   <si>
-    <t>h</t>
-  </si>
-  <si>
-    <t>i</t>
+    <t>Hemen</t>
+  </si>
+  <si>
+    <t>Ipad</t>
   </si>
   <si>
     <t>Name</t>
@@ -176,11 +176,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="5">
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="180" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -640,19 +640,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -792,7 +792,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1330,8 +1330,8 @@
   <sheetPr/>
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N30" sqref="N30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="3"/>
@@ -1465,8 +1465,8 @@
   <sheetPr/>
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="4"/>
@@ -1475,7 +1475,8 @@
     <col min="2" max="2" width="18.1875" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.875" style="1" customWidth="1"/>
     <col min="4" max="4" width="7.3125" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="1"/>
+    <col min="5" max="5" width="10.5625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
